--- a/medicine/Enfance/Máret_Ánne_Sara/Máret_Ánne_Sara.xlsx
+++ b/medicine/Enfance/Máret_Ánne_Sara/Máret_Ánne_Sara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A1ret_%C3%81nne_Sara</t>
+          <t>Máret_Ánne_Sara</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Máret Ánne Sara, née le 23 décembre 1983 à Kautokeino, est une artiste et écrivain samo-norvégienne.
 Elle vit et travaille à Kautokeino, dans le comté de Finnmark.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A1ret_%C3%81nne_Sara</t>
+          <t>Máret_Ánne_Sara</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Máret Ánne Sara grandit dans le comté de Finnmark dans une famille d'éleveurs de rennes pratiquant l'apiculture en été à Kvaløya.
 Elle est diplômée en arts de la Arts University (en) à Bournemouth, en Angleterre. Elle a été nommée pour le Prix de la littérature pour enfants et jeunes (sv) du Conseil nordique 2014 pour Ilmmiid gaskkas (Entre les mondes).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A1ret_%C3%81nne_Sara</t>
+          <t>Máret_Ánne_Sara</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ilmmiid gaskkas (2013)
 Doaresbealde doali (2014)</t>
